--- a/random_data/random_pressure_injuries.xlsx
+++ b/random_data/random_pressure_injuries.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utilisateur/onedrive-univ-pd/pedagogical_extended_prone/random_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED46468-4C69-4D46-9830-C78F7DB50048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="29260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>gupi</t>
+  </si>
+  <si>
+    <t>pressure_injuries</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +80,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +166,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +218,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,26 +411,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gupi</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>pressure_injuries</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -377,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -385,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -393,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -401,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -409,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -417,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -425,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -433,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -441,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -449,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -457,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -465,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -473,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -481,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -489,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -497,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -505,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -513,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -521,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -529,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -537,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -545,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -553,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -561,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -569,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -577,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -585,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -593,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -601,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -609,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -617,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -625,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -633,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -641,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -649,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -657,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -665,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -673,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -681,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -689,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -697,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -705,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -713,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -721,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -729,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -737,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -745,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -753,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -761,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -769,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -777,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -785,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -793,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -801,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -809,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -817,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -825,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -833,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -841,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -849,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -857,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -865,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -873,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -881,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -889,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -897,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -905,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -913,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -921,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -929,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -937,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -945,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -953,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -961,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -969,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -977,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -985,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -993,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1001,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1009,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1017,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1025,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1033,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1041,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1049,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1057,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1065,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1073,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1081,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1089,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1097,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1105,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1113,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1121,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1129,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1137,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1145,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1153,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1161,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1169,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1177,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1185,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1193,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1201,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1209,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1217,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1225,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1233,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1241,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1249,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1257,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1265,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1273,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1281,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1289,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1297,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1305,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1313,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1321,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1329,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
